--- a/docs/template-cbf-cos.xlsx
+++ b/docs/template-cbf-cos.xlsx
@@ -10541,8 +10541,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x01010069EA7952651B2E4C8ABE43C1505E70C4" ma:contentTypeVersion="6" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="e44acb87c5c70b0ecd89c755316370bc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b6e1ca75-8d70-4c07-a1d5-008ce9de9a75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="edaf7817144bddab7b7162b7b812e70f" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010069EA7952651B2E4C8ABE43C1505E70C4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="477863cacb66906565f0ad6600a82b1c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b6e1ca75-8d70-4c07-a1d5-008ce9de9a75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac3c32d1535fc2015dbe5c10975a053b" ns2:_="">
     <xsd:import namespace="b6e1ca75-8d70-4c07-a1d5-008ce9de9a75"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -10556,6 +10556,11 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10598,6 +10603,33 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -10608,8 +10640,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -10714,21 +10746,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EB56204-F323-4936-BA2B-1892E6FB7013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b6e1ca75-8d70-4c07-a1d5-008ce9de9a75"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53011C7D-2276-4BAA-8B6C-601649A47237}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/docs/template-cbf-cos.xlsx
+++ b/docs/template-cbf-cos.xlsx
@@ -10541,9 +10541,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010069EA7952651B2E4C8ABE43C1505E70C4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="477863cacb66906565f0ad6600a82b1c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b6e1ca75-8d70-4c07-a1d5-008ce9de9a75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac3c32d1535fc2015dbe5c10975a053b" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010069EA7952651B2E4C8ABE43C1505E70C4" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bec2e83585562a3f58cfd26f5d451141">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b6e1ca75-8d70-4c07-a1d5-008ce9de9a75" xmlns:ns3="6182920f-9004-47cb-8729-6f79319a1e85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d227f7d82698ea555e402e5c53adbb68" ns2:_="" ns3:_="">
     <xsd:import namespace="b6e1ca75-8d70-4c07-a1d5-008ce9de9a75"/>
+    <xsd:import namespace="6182920f-9004-47cb-8729-6f79319a1e85"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -10561,6 +10562,8 @@
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10628,6 +10631,36 @@
     <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6182920f-9004-47cb-8729-6f79319a1e85" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -10746,7 +10779,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53011C7D-2276-4BAA-8B6C-601649A47237}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FDE964B-DD51-4DBE-8201-1BA246E68028}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
